--- a/biology/Botanique/Aichryson_divaricatum/Aichryson_divaricatum.xlsx
+++ b/biology/Botanique/Aichryson_divaricatum/Aichryson_divaricatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aichryson divaricatum est une espèce de plante de la famille des Crassulaceae endémique à Madère.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 juillet 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 juillet 2016) :
 variété Aichryson divaricatum var. pubescens Praeger</t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée atteignant 40 cm de haut.
 Les feuilles sont en forme  de losange et n'ont pas de poil.
-Fleurs jaunes en corymbe lâche[2]. La hampe florale atteint 60 cm de haut.
+Fleurs jaunes en corymbe lâche. La hampe florale atteint 60 cm de haut.
 . 
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aichryson divaricatum se rencontre dans la laurisylve de Madère
 </t>
